--- a/docs/StructureDefinition-Observation-fetal-presentation.xlsx
+++ b/docs/StructureDefinition-Observation-fetal-presentation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Observation profile represents the fetal presentation (orientation within the mother's womb) of a fetus prior to delivery/birth.</t>
+    <t>This Observation profile represents the fetal presentation (orientation within the mother's womb) of a fetus prior to delivery/birth. Only the presentations in the preferred
+binding can be reported to NCHS.  The full set of abnormal presentations is included to support more general use.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -903,7 +904,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>The value set contains the list of the different presentations (orientations within the mother's womb) that a fetus may be in prior to delivery.</t>
+    <t>The preferred value set contains the list of reportable presentations (orientations within the mother's womb) that a fetus may be in prior to delivery.</t>
   </si>
   <si>
     <t>The presentation (orientation within the mother's womb) that a fetus may be in prior to delivery/birth.</t>
@@ -913,9 +914,6 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t>Fetal Presentations (NCHS)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/bfdr/ValueSet/ValueSet-fetal-presentations</t>
@@ -4725,13 +4723,11 @@
         <v>84</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y23" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>84</v>
@@ -4758,7 +4754,7 @@
         <v>95</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>108</v>
@@ -4767,33 +4763,33 @@
         <v>84</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AO23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AQ23" t="s" s="2">
+      <c r="AR23" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AR23" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4819,16 +4815,16 @@
         <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>84</v>
@@ -4853,14 +4849,14 @@
         <v>84</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>84</v>
       </c>
@@ -4877,7 +4873,7 @@
         <v>84</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -4886,7 +4882,7 @@
         <v>95</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>108</v>
@@ -4901,7 +4897,7 @@
         <v>109</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>84</v>
@@ -4918,14 +4914,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4947,16 +4943,16 @@
         <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>84</v>
@@ -4981,14 +4977,14 @@
         <v>84</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>84</v>
       </c>
@@ -5005,7 +5001,7 @@
         <v>84</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
@@ -5023,19 +5019,19 @@
         <v>84</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>84</v>
@@ -5046,10 +5042,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5072,19 +5068,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>84</v>
@@ -5133,7 +5129,7 @@
         <v>84</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5154,10 +5150,10 @@
         <v>84</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>84</v>
@@ -5174,10 +5170,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5203,13 +5199,13 @@
         <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5238,11 +5234,11 @@
         <v>217</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>84</v>
       </c>
@@ -5259,7 +5255,7 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5277,19 +5273,19 @@
         <v>84</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>84</v>
@@ -5300,10 +5296,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5329,16 +5325,16 @@
         <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>84</v>
@@ -5366,11 +5362,11 @@
         <v>217</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>84</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>84</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -5408,10 +5404,10 @@
         <v>84</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>84</v>
@@ -5428,10 +5424,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5454,16 +5450,16 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5513,7 +5509,7 @@
         <v>84</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5531,19 +5527,19 @@
         <v>84</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>84</v>
@@ -5554,10 +5550,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5580,16 +5576,16 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5639,7 +5635,7 @@
         <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -5657,19 +5653,19 @@
         <v>84</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>84</v>
@@ -5680,10 +5676,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5706,19 +5702,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>84</v>
@@ -5767,7 +5763,7 @@
         <v>84</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -5779,19 +5775,19 @@
         <v>107</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>84</v>
@@ -5808,10 +5804,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5834,13 +5830,13 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5891,7 +5887,7 @@
         <v>84</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -5932,10 +5928,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5964,7 +5960,7 @@
         <v>144</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>146</v>
@@ -6017,7 +6013,7 @@
         <v>149</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6058,14 +6054,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6087,10 +6083,10 @@
         <v>143</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>146</v>
@@ -6145,7 +6141,7 @@
         <v>84</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -6186,10 +6182,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6212,16 +6208,16 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6271,7 +6267,7 @@
         <v>84</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6280,22 +6276,22 @@
         <v>95</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>84</v>
@@ -6312,10 +6308,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6338,16 +6334,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6397,7 +6393,7 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -6406,22 +6402,22 @@
         <v>95</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AN36" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>84</v>
@@ -6438,10 +6434,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6467,16 +6463,16 @@
         <v>200</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>84</v>
@@ -6504,11 +6500,11 @@
         <v>122</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>84</v>
       </c>
@@ -6525,7 +6521,7 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6543,13 +6539,13 @@
         <v>84</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM37" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>84</v>
@@ -6566,10 +6562,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6595,16 +6591,16 @@
         <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>84</v>
@@ -6632,11 +6628,11 @@
         <v>217</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>84</v>
       </c>
@@ -6653,7 +6649,7 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -6671,13 +6667,13 @@
         <v>84</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM38" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AN38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>84</v>
@@ -6694,10 +6690,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6720,19 +6716,19 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>84</v>
@@ -6781,7 +6777,7 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -6793,19 +6789,19 @@
         <v>107</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>84</v>
@@ -6822,10 +6818,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6848,16 +6844,16 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6907,7 +6903,7 @@
         <v>84</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -6928,10 +6924,10 @@
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>84</v>
@@ -6948,10 +6944,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6974,16 +6970,16 @@
         <v>96</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7033,7 +7029,7 @@
         <v>84</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7054,10 +7050,10 @@
         <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>84</v>
@@ -7074,10 +7070,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7100,16 +7096,16 @@
         <v>96</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7159,7 +7155,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7180,10 +7176,10 @@
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>84</v>
@@ -7200,10 +7196,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7226,19 +7222,19 @@
         <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>84</v>
@@ -7287,7 +7283,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7308,10 +7304,10 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>84</v>
@@ -7328,10 +7324,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7354,13 +7350,13 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7411,7 +7407,7 @@
         <v>84</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -7452,10 +7448,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7484,7 +7480,7 @@
         <v>144</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>146</v>
@@ -7537,7 +7533,7 @@
         <v>149</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -7578,14 +7574,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7607,10 +7603,10 @@
         <v>143</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>146</v>
@@ -7665,7 +7661,7 @@
         <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -7706,10 +7702,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7735,13 +7731,13 @@
         <v>200</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>215</v>
@@ -7793,7 +7789,7 @@
         <v>84</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>95</v>
@@ -7811,7 +7807,7 @@
         <v>84</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>222</v>
@@ -7834,10 +7830,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7860,16 +7856,16 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>285</v>
@@ -7921,7 +7917,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -7939,19 +7935,19 @@
         <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>84</v>
@@ -7962,10 +7958,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7991,16 +7987,16 @@
         <v>200</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>84</v>
@@ -8025,14 +8021,14 @@
         <v>84</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>84</v>
       </c>
@@ -8049,7 +8045,7 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8058,7 +8054,7 @@
         <v>95</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>108</v>
@@ -8073,7 +8069,7 @@
         <v>109</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>84</v>
@@ -8090,14 +8086,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8119,16 +8115,16 @@
         <v>200</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>84</v>
@@ -8153,14 +8149,14 @@
         <v>84</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>84</v>
       </c>
@@ -8177,7 +8173,7 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8195,19 +8191,19 @@
         <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>84</v>
@@ -8218,10 +8214,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8247,16 +8243,16 @@
         <v>85</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="N51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>84</v>
@@ -8305,7 +8301,7 @@
         <v>84</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8326,10 +8322,10 @@
         <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>84</v>

--- a/docs/StructureDefinition-Observation-fetal-presentation.xlsx
+++ b/docs/StructureDefinition-Observation-fetal-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-fetal-presentation.xlsx
+++ b/docs/StructureDefinition-Observation-fetal-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,6 +238,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: U.S. Standard Report of Fetal Death (rev. 2003)</t>
+  </si>
+  <si>
+    <t>Mapping: U.S. Standard Certificate of Live Birth (rev. 2003)</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -254,12 +260,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: U.S. Standard Report of Fetal Death (rev. 2003)</t>
-  </si>
-  <si>
-    <t>Mapping: U.S. Standard Certificate of Live Birth (rev. 2003)</t>
   </si>
   <si>
     <t>Vital Signs
@@ -923,6 +923,12 @@
 obs-7</t>
   </si>
   <si>
+    <t>38c. Fetal presentation at delivery</t>
+  </si>
+  <si>
+    <t>46c. Fetal presentation at birth</t>
+  </si>
+  <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
@@ -933,12 +939,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>38c. Fetal presentation at delivery</t>
-  </si>
-  <si>
-    <t>46c. Fetal presentation at birth</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1852,14 +1852,14 @@
     <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="54.27734375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="56.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.27734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="56.01171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2098,22 +2098,22 @@
         <v>89</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AP2" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ2" t="s" s="2">
         <v>84</v>
@@ -2357,13 +2357,13 @@
         <v>84</v>
       </c>
       <c r="AN4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP4" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AO4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ4" t="s" s="2">
         <v>84</v>
@@ -2483,13 +2483,13 @@
         <v>84</v>
       </c>
       <c r="AN5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AO5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ5" t="s" s="2">
         <v>84</v>
@@ -2609,13 +2609,13 @@
         <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AO6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ6" t="s" s="2">
         <v>84</v>
@@ -2735,13 +2735,13 @@
         <v>84</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ7" t="s" s="2">
         <v>84</v>
@@ -2861,13 +2861,13 @@
         <v>84</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ8" t="s" s="2">
         <v>84</v>
@@ -2987,13 +2987,13 @@
         <v>84</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ9" t="s" s="2">
         <v>84</v>
@@ -3115,13 +3115,13 @@
         <v>84</v>
       </c>
       <c r="AN10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ10" t="s" s="2">
         <v>84</v>
@@ -3232,25 +3232,25 @@
         <v>108</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR11" t="s" s="2">
         <v>84</v>
@@ -3360,22 +3360,22 @@
         <v>173</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AP12" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>84</v>
@@ -3486,22 +3486,22 @@
         <v>173</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AP13" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ13" t="s" s="2">
         <v>84</v>
@@ -3614,25 +3614,25 @@
         <v>108</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AO14" t="s" s="2">
+      <c r="AQ14" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR14" t="s" s="2">
         <v>84</v>
@@ -3748,19 +3748,19 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AQ15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ15" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR15" t="s" s="2">
         <v>84</v>
@@ -3870,28 +3870,28 @@
         <v>108</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AQ16" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AP16" t="s" s="2">
+      <c r="AR16" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR16" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3998,25 +3998,25 @@
         <v>173</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AQ17" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR17" t="s" s="2">
         <v>84</v>
@@ -4130,19 +4130,19 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AQ18" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR18" t="s" s="2">
         <v>84</v>
@@ -4252,25 +4252,25 @@
         <v>173</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR19" t="s" s="2">
         <v>84</v>
@@ -4380,25 +4380,25 @@
         <v>108</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR20" t="s" s="2">
         <v>84</v>
@@ -4512,19 +4512,19 @@
         <v>84</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AO21" t="s" s="2">
+      <c r="AQ21" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR21" t="s" s="2">
         <v>84</v>
@@ -4634,25 +4634,25 @@
         <v>173</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR22" t="s" s="2">
         <v>84</v>
@@ -4760,25 +4760,25 @@
         <v>108</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="AR23" t="s" s="2">
         <v>293</v>
@@ -4894,16 +4894,16 @@
         <v>84</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>84</v>
@@ -5019,25 +5019,25 @@
         <v>84</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AO25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR25" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR25" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -5150,16 +5150,16 @@
         <v>84</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>84</v>
@@ -5273,25 +5273,25 @@
         <v>84</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AO27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP27" t="s" s="2">
+      <c r="AQ27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR27" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR27" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5404,16 +5404,16 @@
         <v>84</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>84</v>
@@ -5527,25 +5527,25 @@
         <v>84</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AO29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR29" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -5653,25 +5653,25 @@
         <v>84</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AO30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP30" t="s" s="2">
+      <c r="AQ30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR30" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR30" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5784,16 +5784,16 @@
         <v>84</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>84</v>
@@ -5911,13 +5911,13 @@
         <v>84</v>
       </c>
       <c r="AN32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>84</v>
@@ -6037,13 +6037,13 @@
         <v>84</v>
       </c>
       <c r="AN33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>84</v>
@@ -6165,13 +6165,13 @@
         <v>84</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>84</v>
@@ -6288,16 +6288,16 @@
         <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>84</v>
@@ -6414,16 +6414,16 @@
         <v>84</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>84</v>
@@ -6539,19 +6539,19 @@
         <v>84</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>84</v>
@@ -6667,19 +6667,19 @@
         <v>84</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>84</v>
@@ -6798,16 +6798,16 @@
         <v>84</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>84</v>
@@ -6924,16 +6924,16 @@
         <v>84</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>84</v>
@@ -7050,16 +7050,16 @@
         <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>84</v>
@@ -7176,16 +7176,16 @@
         <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>84</v>
@@ -7304,16 +7304,16 @@
         <v>84</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AP43" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ43" t="s" s="2">
         <v>84</v>
@@ -7431,13 +7431,13 @@
         <v>84</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>84</v>
@@ -7557,13 +7557,13 @@
         <v>84</v>
       </c>
       <c r="AN45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>84</v>
@@ -7685,13 +7685,13 @@
         <v>84</v>
       </c>
       <c r="AN46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>84</v>
@@ -7807,22 +7807,22 @@
         <v>84</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AP47" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AO47" t="s" s="2">
+      <c r="AQ47" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AR47" t="s" s="2">
         <v>84</v>
@@ -7935,25 +7935,25 @@
         <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AO48" t="s" s="2">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>84</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -8066,16 +8066,16 @@
         <v>84</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AP49" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>84</v>
@@ -8191,25 +8191,25 @@
         <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AP50" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AO50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP50" t="s" s="2">
+      <c r="AQ50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR50" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR50" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -8322,16 +8322,16 @@
         <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AP51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>84</v>
